--- a/input_CheckAdditive.xlsx
+++ b/input_CheckAdditive.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayoubafrass/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSAU\Desktop\LANG_SCRIPT\LangageScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB7A365-348D-334A-9445-BB5749AE28C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D1393E-ACED-4CAE-9494-43C0565997B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{F26F301D-6AD7-C245-BC51-8F1FE8993344}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F26F301D-6AD7-C245-BC51-8F1FE8993344}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">1-Performance </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>a- Joone</t>
   </si>
@@ -59,12 +57,6 @@
     <t>++</t>
   </si>
   <si>
-    <t>2-Composition</t>
-  </si>
-  <si>
-    <t>Score Global()</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -90,6 +82,18 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
@@ -452,36 +456,39 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>17</v>
@@ -489,13 +496,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>14.5</v>
@@ -503,13 +510,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>12.5</v>
@@ -517,13 +524,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>12.5</v>
@@ -531,13 +538,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>12.5</v>
@@ -545,13 +552,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>12.5</v>
@@ -559,13 +566,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>12</v>
@@ -573,13 +580,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>12</v>
@@ -587,13 +594,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>9.5</v>
@@ -601,13 +608,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
         <v>9.5</v>
@@ -615,13 +622,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>9.5</v>
@@ -629,13 +636,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>6.5</v>
